--- a/data/trans_orig/P36BPD03_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD03_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AB5CF43-89C3-41C5-9D1C-D9616B3E6FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C21FF6E8-ECE3-48C6-8EB2-9FD4C572AFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EBD4A6AA-570D-487A-B853-556873B755B7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2A9D5DCA-D06B-4E72-A372-5750666785F6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="270">
   <si>
     <t>Población según el número de raciones de verdura u hortalizas que consume al día en 2023 (Tasa respuesta: 99,82%)</t>
   </si>
@@ -74,754 +74,775 @@
     <t>8,97%</t>
   </si>
   <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
   </si>
   <si>
     <t>8,32%</t>
   </si>
   <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>No diariamente, pero tres o más por semana</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>Diariamente, aunque menos de dos al día</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>Dos o más al día (al menos una de ellas en ensalada o crudas)</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
     <t>4,97%</t>
   </si>
   <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>No diariamente, pero tres o más por semana</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>Diariamente, aunque menos de dos al día</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>Dos o más al día (al menos una de ellas en ensalada o crudas)</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>4,17%</t>
   </si>
   <si>
     <t>2,97%</t>
   </si>
   <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>6,61%</t>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
   </si>
   <si>
     <t>4,92%</t>
   </si>
   <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
   </si>
   <si>
     <t>51,04%</t>
   </si>
   <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
     <t>48,3%</t>
   </si>
   <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
   </si>
   <si>
     <t>24,89%</t>
   </si>
   <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
   </si>
   <si>
     <t>23,24%</t>
   </si>
   <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1236,7 +1257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEFEF05B-8EDC-4B92-9E26-6C58EDA95D1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A30DE8-A7E6-4C6E-A9D3-9FF019317EA2}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1895,7 +1916,7 @@
         <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>60</v>
@@ -1904,13 +1925,13 @@
         <v>57497</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1925,13 +1946,13 @@
         <v>129969</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>164</v>
@@ -1940,13 +1961,13 @@
         <v>114170</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>292</v>
@@ -1955,13 +1976,13 @@
         <v>244138</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1976,13 +1997,13 @@
         <v>263643</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>458</v>
@@ -1991,13 +2012,13 @@
         <v>310721</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>728</v>
@@ -2006,13 +2027,13 @@
         <v>574365</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2027,13 +2048,13 @@
         <v>130209</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>194</v>
@@ -2042,13 +2063,13 @@
         <v>134359</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>311</v>
@@ -2057,13 +2078,13 @@
         <v>264568</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2119,7 +2140,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2131,13 +2152,13 @@
         <v>35421</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>42</v>
@@ -2146,13 +2167,13 @@
         <v>27806</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>75</v>
@@ -2161,10 +2182,10 @@
         <v>63227</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>133</v>
@@ -2475,7 +2496,7 @@
         <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>22</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2490,13 +2511,13 @@
         <v>317311</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>545</v>
@@ -2505,13 +2526,13 @@
         <v>322603</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>899</v>
@@ -2520,13 +2541,13 @@
         <v>639913</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2541,13 +2562,13 @@
         <v>118417</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H27" s="7">
         <v>250</v>
@@ -2556,13 +2577,13 @@
         <v>150080</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M27" s="7">
         <v>378</v>
@@ -2571,13 +2592,13 @@
         <v>268498</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2633,7 +2654,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2645,13 +2666,13 @@
         <v>29034</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H29" s="7">
         <v>58</v>
@@ -2660,13 +2681,13 @@
         <v>33793</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M29" s="7">
         <v>98</v>
@@ -2675,13 +2696,13 @@
         <v>62827</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>53</v>
+        <v>206</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,13 +2717,13 @@
         <v>139276</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H30" s="7">
         <v>296</v>
@@ -2711,13 +2732,13 @@
         <v>155981</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M30" s="7">
         <v>506</v>
@@ -2726,13 +2747,13 @@
         <v>295256</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2747,13 +2768,13 @@
         <v>378957</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H31" s="7">
         <v>978</v>
@@ -2762,13 +2783,13 @@
         <v>520593</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M31" s="7">
         <v>1540</v>
@@ -2777,13 +2798,13 @@
         <v>899551</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,13 +2819,13 @@
         <v>148844</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H32" s="7">
         <v>371</v>
@@ -2813,13 +2834,13 @@
         <v>313730</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M32" s="7">
         <v>585</v>
@@ -2828,13 +2849,13 @@
         <v>462574</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,13 +2923,13 @@
         <v>193293</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H34" s="7">
         <v>199</v>
@@ -2917,13 +2938,13 @@
         <v>160094</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="M34" s="7">
         <v>371</v>
@@ -2932,13 +2953,13 @@
         <v>353387</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>163</v>
+        <v>240</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,13 +2974,13 @@
         <v>783396</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>85</v>
+        <v>244</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H35" s="7">
         <v>1006</v>
@@ -2968,13 +2989,13 @@
         <v>710745</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>83</v>
+        <v>247</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="M35" s="7">
         <v>1780</v>
@@ -2983,13 +3004,13 @@
         <v>1494141</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,13 +3025,13 @@
         <v>1681482</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="H36" s="7">
         <v>2916</v>
@@ -3019,13 +3040,13 @@
         <v>1985783</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M36" s="7">
         <v>4636</v>
@@ -3034,13 +3055,13 @@
         <v>3667265</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>186</v>
+        <v>258</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,13 +3076,13 @@
         <v>723363</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="H37" s="7">
         <v>1235</v>
@@ -3070,13 +3091,13 @@
         <v>946448</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="M37" s="7">
         <v>1940</v>
@@ -3085,13 +3106,13 @@
         <v>1669811</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,7 +3168,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36BPD03_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD03_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C21FF6E8-ECE3-48C6-8EB2-9FD4C572AFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0151A6F-7D8D-4905-B466-19D9A95351E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2A9D5DCA-D06B-4E72-A372-5750666785F6}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0552B03C-4806-4850-B3FF-ADD6EFB72D6C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="301">
   <si>
     <t>Población según el número de raciones de verdura u hortalizas que consume al día en 2023 (Tasa respuesta: 99,82%)</t>
   </si>
@@ -65,784 +65,877 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Menos de tres veces por semana</t>
   </si>
   <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
   </si>
   <si>
     <t>No diariamente, pero tres o más por semana</t>
   </si>
   <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>Diariamente, aunque menos de dos al día</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>Dos o más al día (al menos una de ellas en ensalada o crudas)</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
   </si>
   <si>
     <t>19,98%</t>
   </si>
   <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>Diariamente, aunque menos de dos al día</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>Dos o más al día (al menos una de ellas en ensalada o crudas)</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
   </si>
   <si>
     <t>22,36%</t>
   </si>
   <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
   </si>
   <si>
     <t>20,34%</t>
   </si>
   <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
+    <t>32,02%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1257,8 +1350,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A30DE8-A7E6-4C6E-A9D3-9FF019317EA2}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97597E23-82F3-44EC-A221-8DCFF6A16D5F}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1378,7 +1471,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="7">
-        <v>33881</v>
+        <v>37270</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1393,7 +1486,7 @@
         <v>16</v>
       </c>
       <c r="I4" s="7">
-        <v>29547</v>
+        <v>28707</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1408,7 +1501,7 @@
         <v>29</v>
       </c>
       <c r="N4" s="7">
-        <v>63428</v>
+        <v>65977</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1429,7 +1522,7 @@
         <v>49</v>
       </c>
       <c r="D5" s="7">
-        <v>105755</v>
+        <v>120240</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1444,7 +1537,7 @@
         <v>59</v>
       </c>
       <c r="I5" s="7">
-        <v>91351</v>
+        <v>85631</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1459,7 +1552,7 @@
         <v>108</v>
       </c>
       <c r="N5" s="7">
-        <v>197107</v>
+        <v>205871</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1480,7 +1573,7 @@
         <v>81</v>
       </c>
       <c r="D6" s="7">
-        <v>165080</v>
+        <v>166481</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1495,7 +1588,7 @@
         <v>98</v>
       </c>
       <c r="I6" s="7">
-        <v>178127</v>
+        <v>150350</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1510,7 +1603,7 @@
         <v>179</v>
       </c>
       <c r="N6" s="7">
-        <v>343206</v>
+        <v>316831</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1531,7 +1624,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="7">
-        <v>72963</v>
+        <v>75995</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1546,7 +1639,7 @@
         <v>34</v>
       </c>
       <c r="I7" s="7">
-        <v>55932</v>
+        <v>48512</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1561,7 +1654,7 @@
         <v>63</v>
       </c>
       <c r="N7" s="7">
-        <v>128895</v>
+        <v>124507</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1582,7 +1675,7 @@
         <v>172</v>
       </c>
       <c r="D8" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1597,7 +1690,7 @@
         <v>207</v>
       </c>
       <c r="I8" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1612,7 +1705,7 @@
         <v>379</v>
       </c>
       <c r="N8" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1635,7 +1728,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>22162</v>
+        <v>21720</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1650,7 +1743,7 @@
         <v>20</v>
       </c>
       <c r="I9" s="7">
-        <v>23737</v>
+        <v>21804</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1665,7 +1758,7 @@
         <v>36</v>
       </c>
       <c r="N9" s="7">
-        <v>45899</v>
+        <v>43524</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1674,7 +1767,7 @@
         <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1686,46 +1779,46 @@
         <v>87</v>
       </c>
       <c r="D10" s="7">
-        <v>124270</v>
+        <v>130319</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>108</v>
       </c>
       <c r="I10" s="7">
-        <v>111248</v>
+        <v>103977</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>195</v>
       </c>
       <c r="N10" s="7">
-        <v>235518</v>
+        <v>234296</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1737,46 +1830,46 @@
         <v>135</v>
       </c>
       <c r="D11" s="7">
-        <v>184317</v>
+        <v>176664</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>237</v>
       </c>
       <c r="I11" s="7">
-        <v>261205</v>
+        <v>292112</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>372</v>
       </c>
       <c r="N11" s="7">
-        <v>445522</v>
+        <v>468776</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1788,46 +1881,46 @@
         <v>64</v>
       </c>
       <c r="D12" s="7">
-        <v>97648</v>
+        <v>94844</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>94</v>
       </c>
       <c r="I12" s="7">
-        <v>101246</v>
+        <v>92739</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>158</v>
       </c>
       <c r="N12" s="7">
-        <v>198894</v>
+        <v>187583</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1839,7 +1932,7 @@
         <v>302</v>
       </c>
       <c r="D13" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -1854,7 +1947,7 @@
         <v>459</v>
       </c>
       <c r="I13" s="7">
-        <v>497436</v>
+        <v>510633</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1869,7 +1962,7 @@
         <v>761</v>
       </c>
       <c r="N13" s="7">
-        <v>925832</v>
+        <v>934180</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1883,7 +1976,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1892,46 +1985,46 @@
         <v>30</v>
       </c>
       <c r="D14" s="7">
-        <v>33270</v>
+        <v>32962</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>30</v>
       </c>
       <c r="I14" s="7">
-        <v>24227</v>
+        <v>22787</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>60</v>
       </c>
       <c r="N14" s="7">
-        <v>57497</v>
+        <v>55749</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1943,46 +2036,46 @@
         <v>128</v>
       </c>
       <c r="D15" s="7">
-        <v>129969</v>
+        <v>129979</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>164</v>
       </c>
       <c r="I15" s="7">
-        <v>114170</v>
+        <v>108586</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="L15" s="7" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="M15" s="7">
         <v>292</v>
       </c>
       <c r="N15" s="7">
-        <v>244138</v>
+        <v>238564</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1994,46 +2087,46 @@
         <v>270</v>
       </c>
       <c r="D16" s="7">
-        <v>263643</v>
+        <v>248136</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>458</v>
       </c>
       <c r="I16" s="7">
-        <v>310721</v>
+        <v>286503</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>728</v>
       </c>
       <c r="N16" s="7">
-        <v>574365</v>
+        <v>534638</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2045,46 +2138,46 @@
         <v>117</v>
       </c>
       <c r="D17" s="7">
-        <v>130209</v>
+        <v>125098</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>194</v>
       </c>
       <c r="I17" s="7">
-        <v>134359</v>
+        <v>124593</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>311</v>
       </c>
       <c r="N17" s="7">
-        <v>264568</v>
+        <v>249690</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2096,7 +2189,7 @@
         <v>545</v>
       </c>
       <c r="D18" s="7">
-        <v>557092</v>
+        <v>536175</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -2111,7 +2204,7 @@
         <v>846</v>
       </c>
       <c r="I18" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -2126,7 +2219,7 @@
         <v>1391</v>
       </c>
       <c r="N18" s="7">
-        <v>1140568</v>
+        <v>1078642</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -2140,7 +2233,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2149,46 +2242,46 @@
         <v>33</v>
       </c>
       <c r="D19" s="7">
-        <v>35421</v>
+        <v>34973</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>42</v>
       </c>
       <c r="I19" s="7">
-        <v>27806</v>
+        <v>25802</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>75</v>
       </c>
       <c r="N19" s="7">
-        <v>63227</v>
+        <v>60775</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2200,46 +2293,46 @@
         <v>161</v>
       </c>
       <c r="D20" s="7">
-        <v>161114</v>
+        <v>157396</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>205</v>
       </c>
       <c r="I20" s="7">
-        <v>134599</v>
+        <v>126092</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>366</v>
       </c>
       <c r="N20" s="7">
-        <v>295713</v>
+        <v>283488</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2251,46 +2344,46 @@
         <v>318</v>
       </c>
       <c r="D21" s="7">
-        <v>372174</v>
+        <v>547754</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>600</v>
       </c>
       <c r="I21" s="7">
-        <v>392535</v>
+        <v>383585</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>918</v>
       </c>
       <c r="N21" s="7">
-        <v>764709</v>
+        <v>931339</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2302,46 +2395,46 @@
         <v>153</v>
       </c>
       <c r="D22" s="7">
-        <v>155281</v>
+        <v>147663</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>292</v>
       </c>
       <c r="I22" s="7">
-        <v>191101</v>
+        <v>176332</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>445</v>
       </c>
       <c r="N22" s="7">
-        <v>346382</v>
+        <v>323994</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2353,7 +2446,7 @@
         <v>665</v>
       </c>
       <c r="D23" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2368,7 +2461,7 @@
         <v>1139</v>
       </c>
       <c r="I23" s="7">
-        <v>746041</v>
+        <v>711810</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2383,7 +2476,7 @@
         <v>1804</v>
       </c>
       <c r="N23" s="7">
-        <v>1470031</v>
+        <v>1599596</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2397,7 +2490,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2406,46 +2499,46 @@
         <v>40</v>
       </c>
       <c r="D24" s="7">
-        <v>39526</v>
+        <v>37681</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>33</v>
       </c>
       <c r="I24" s="7">
-        <v>20984</v>
+        <v>19570</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>73</v>
       </c>
       <c r="N24" s="7">
-        <v>60510</v>
+        <v>57251</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2457,46 +2550,46 @@
         <v>139</v>
       </c>
       <c r="D25" s="7">
-        <v>123012</v>
+        <v>117534</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>174</v>
       </c>
       <c r="I25" s="7">
-        <v>103396</v>
+        <v>95974</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>313</v>
       </c>
       <c r="N25" s="7">
-        <v>226409</v>
+        <v>213508</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2508,46 +2601,46 @@
         <v>354</v>
       </c>
       <c r="D26" s="7">
-        <v>317311</v>
+        <v>293827</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>545</v>
       </c>
       <c r="I26" s="7">
-        <v>322603</v>
+        <v>294618</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>185</v>
+        <v>72</v>
       </c>
       <c r="M26" s="7">
         <v>899</v>
       </c>
       <c r="N26" s="7">
-        <v>639913</v>
+        <v>588445</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2559,46 +2652,46 @@
         <v>128</v>
       </c>
       <c r="D27" s="7">
-        <v>118417</v>
+        <v>110454</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H27" s="7">
         <v>250</v>
       </c>
       <c r="I27" s="7">
-        <v>150080</v>
+        <v>137743</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M27" s="7">
         <v>378</v>
       </c>
       <c r="N27" s="7">
-        <v>268498</v>
+        <v>248197</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2610,7 +2703,7 @@
         <v>661</v>
       </c>
       <c r="D28" s="7">
-        <v>598266</v>
+        <v>559496</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>50</v>
@@ -2625,7 +2718,7 @@
         <v>1002</v>
       </c>
       <c r="I28" s="7">
-        <v>597063</v>
+        <v>547905</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>50</v>
@@ -2640,7 +2733,7 @@
         <v>1663</v>
       </c>
       <c r="N28" s="7">
-        <v>1195329</v>
+        <v>1107401</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>50</v>
@@ -2654,55 +2747,55 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D29" s="7">
-        <v>29034</v>
+        <v>17447</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H29" s="7">
+        <v>26</v>
+      </c>
+      <c r="I29" s="7">
+        <v>13344</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>50</v>
+      </c>
+      <c r="N29" s="7">
+        <v>30791</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="H29" s="7">
-        <v>58</v>
-      </c>
-      <c r="I29" s="7">
-        <v>33793</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="M29" s="7">
-        <v>98</v>
-      </c>
-      <c r="N29" s="7">
-        <v>62827</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,49 +2804,49 @@
         <v>20</v>
       </c>
       <c r="C30" s="7">
+        <v>111</v>
+      </c>
+      <c r="D30" s="7">
+        <v>74040</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H30" s="7">
+        <v>127</v>
+      </c>
+      <c r="I30" s="7">
+        <v>61611</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="M30" s="7">
+        <v>238</v>
+      </c>
+      <c r="N30" s="7">
+        <v>135651</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="D30" s="7">
-        <v>139276</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H30" s="7">
-        <v>296</v>
-      </c>
-      <c r="I30" s="7">
-        <v>155981</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="M30" s="7">
-        <v>506</v>
-      </c>
-      <c r="N30" s="7">
-        <v>295256</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2762,49 +2855,49 @@
         <v>30</v>
       </c>
       <c r="C31" s="7">
-        <v>562</v>
+        <v>304</v>
       </c>
       <c r="D31" s="7">
-        <v>378957</v>
+        <v>192256</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H31" s="7">
+        <v>457</v>
+      </c>
+      <c r="I31" s="7">
+        <v>224246</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>761</v>
+      </c>
+      <c r="N31" s="7">
+        <v>416502</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="H31" s="7">
-        <v>978</v>
-      </c>
-      <c r="I31" s="7">
-        <v>520593</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="M31" s="7">
-        <v>1540</v>
-      </c>
-      <c r="N31" s="7">
-        <v>899551</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,49 +2906,49 @@
         <v>40</v>
       </c>
       <c r="C32" s="7">
-        <v>214</v>
+        <v>130</v>
       </c>
       <c r="D32" s="7">
-        <v>148844</v>
+        <v>83616</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H32" s="7">
+        <v>215</v>
+      </c>
+      <c r="I32" s="7">
+        <v>308072</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>345</v>
+      </c>
+      <c r="N32" s="7">
+        <v>391687</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="P32" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="H32" s="7">
-        <v>371</v>
-      </c>
-      <c r="I32" s="7">
-        <v>313730</v>
-      </c>
-      <c r="J32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="M32" s="7">
-        <v>585</v>
-      </c>
-      <c r="N32" s="7">
-        <v>462574</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2864,10 +2957,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>1026</v>
+        <v>569</v>
       </c>
       <c r="D33" s="7">
-        <v>696111</v>
+        <v>367358</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -2879,10 +2972,10 @@
         <v>50</v>
       </c>
       <c r="H33" s="7">
-        <v>1703</v>
+        <v>825</v>
       </c>
       <c r="I33" s="7">
-        <v>1024097</v>
+        <v>607273</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>50</v>
@@ -2894,10 +2987,10 @@
         <v>50</v>
       </c>
       <c r="M33" s="7">
-        <v>2729</v>
+        <v>1394</v>
       </c>
       <c r="N33" s="7">
-        <v>1720208</v>
+        <v>974631</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -2911,55 +3004,55 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>230</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>172</v>
+        <v>16</v>
       </c>
       <c r="D34" s="7">
-        <v>193293</v>
+        <v>10414</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H34" s="7">
+        <v>32</v>
+      </c>
+      <c r="I34" s="7">
+        <v>17649</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="H34" s="7">
-        <v>199</v>
-      </c>
-      <c r="I34" s="7">
-        <v>160094</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>48</v>
+      </c>
+      <c r="N34" s="7">
+        <v>28063</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="M34" s="7">
-        <v>371</v>
-      </c>
-      <c r="N34" s="7">
-        <v>353387</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2968,49 +3061,49 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>774</v>
+        <v>99</v>
       </c>
       <c r="D35" s="7">
-        <v>783396</v>
+        <v>58620</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H35" s="7">
+        <v>169</v>
+      </c>
+      <c r="I35" s="7">
+        <v>82581</v>
+      </c>
+      <c r="J35" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="K35" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="H35" s="7">
-        <v>1006</v>
-      </c>
-      <c r="I35" s="7">
-        <v>710745</v>
-      </c>
-      <c r="J35" s="7" t="s">
+      <c r="M35" s="7">
+        <v>268</v>
+      </c>
+      <c r="N35" s="7">
+        <v>141201</v>
+      </c>
+      <c r="O35" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="P35" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="L35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="M35" s="7">
-        <v>1780</v>
-      </c>
-      <c r="N35" s="7">
-        <v>1494141</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,49 +3112,49 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>1720</v>
+        <v>258</v>
       </c>
       <c r="D36" s="7">
-        <v>1681482</v>
+        <v>156759</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H36" s="7">
+        <v>521</v>
+      </c>
+      <c r="I36" s="7">
+        <v>245076</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="K36" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="H36" s="7">
-        <v>2916</v>
-      </c>
-      <c r="I36" s="7">
-        <v>1985783</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>779</v>
+      </c>
+      <c r="N36" s="7">
+        <v>401835</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="M36" s="7">
-        <v>4636</v>
-      </c>
-      <c r="N36" s="7">
-        <v>3667265</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3070,49 +3163,49 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>705</v>
+        <v>84</v>
       </c>
       <c r="D37" s="7">
-        <v>723363</v>
+        <v>56225</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="F37" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H37" s="7">
+        <v>156</v>
+      </c>
+      <c r="I37" s="7">
+        <v>79281</v>
+      </c>
+      <c r="J37" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="K37" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="H37" s="7">
-        <v>1235</v>
-      </c>
-      <c r="I37" s="7">
-        <v>946448</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>240</v>
+      </c>
+      <c r="N37" s="7">
+        <v>135506</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="L37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="M37" s="7">
-        <v>1940</v>
-      </c>
-      <c r="N37" s="7">
-        <v>1669811</v>
-      </c>
-      <c r="O37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,63 +3214,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>457</v>
+      </c>
+      <c r="D38" s="7">
+        <v>282018</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="7">
+        <v>878</v>
+      </c>
+      <c r="I38" s="7">
+        <v>424588</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M38" s="7">
+        <v>1335</v>
+      </c>
+      <c r="N38" s="7">
+        <v>706605</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>172</v>
+      </c>
+      <c r="D39" s="7">
+        <v>192468</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H39" s="7">
+        <v>199</v>
+      </c>
+      <c r="I39" s="7">
+        <v>149662</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="M39" s="7">
+        <v>371</v>
+      </c>
+      <c r="N39" s="7">
+        <v>342130</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>774</v>
+      </c>
+      <c r="D40" s="7">
+        <v>788127</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H40" s="7">
+        <v>1006</v>
+      </c>
+      <c r="I40" s="7">
+        <v>664452</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="M40" s="7">
+        <v>1780</v>
+      </c>
+      <c r="N40" s="7">
+        <v>1452580</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1720</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1781878</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H41" s="7">
+        <v>2916</v>
+      </c>
+      <c r="I41" s="7">
+        <v>1876489</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="M41" s="7">
+        <v>4636</v>
+      </c>
+      <c r="N41" s="7">
+        <v>3658368</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7">
+        <v>705</v>
+      </c>
+      <c r="D42" s="7">
+        <v>693893</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H42" s="7">
+        <v>1235</v>
+      </c>
+      <c r="I42" s="7">
+        <v>967272</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="M42" s="7">
+        <v>1940</v>
+      </c>
+      <c r="N42" s="7">
+        <v>1661166</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>3371</v>
       </c>
-      <c r="D38" s="7">
-        <v>3381534</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="D43" s="7">
+        <v>3456366</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="7">
         <v>5356</v>
       </c>
-      <c r="I38" s="7">
-        <v>3803070</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="I43" s="7">
+        <v>3657876</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" s="7">
         <v>8727</v>
       </c>
-      <c r="N38" s="7">
-        <v>7184604</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>269</v>
+      <c r="N43" s="7">
+        <v>7114243</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
